--- a/data/trans_bre/DCD-Clase-trans_bre.xlsx
+++ b/data/trans_bre/DCD-Clase-trans_bre.xlsx
@@ -642,12 +642,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,09; 10,97</t>
+          <t>2,2; 10,38</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 5,9</t>
+          <t>-1,44; 6,14</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -657,17 +657,17 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>28,31; 330,36</t>
+          <t>32,64; 339,18</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-24,02; 154,16</t>
+          <t>-22,51; 144,34</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>65,13; 215,8</t>
+          <t>70,1; 219,47</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,71; 12,56</t>
+          <t>3,92; 12,61</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,66; 9,8</t>
+          <t>1,83; 10,24</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,21; 17,23</t>
+          <t>7,8; 16,26</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>53,47; 340,44</t>
+          <t>51,57; 341,03</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>20,7; 339,09</t>
+          <t>19,37; 316,81</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>66,11; 209,56</t>
+          <t>61,02; 193,59</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,44; 10,07</t>
+          <t>0,24; 10,12</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,05; 20,42</t>
+          <t>5,49; 19,29</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>15,4; 34,42</t>
+          <t>15,78; 33,96</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 140,85</t>
+          <t>1,93; 142,84</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>74,9; 350,94</t>
+          <t>68,08; 362,73</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>103,83; 899,4</t>
+          <t>103,54; 901,71</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,36; 8,59</t>
+          <t>2,39; 8,31</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,46; 6,75</t>
+          <t>1,15; 6,88</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-8,17; 8,66</t>
+          <t>-6,29; 8,65</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>22,81; 116,66</t>
+          <t>23,83; 111,92</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>16,0; 103,14</t>
+          <t>13,58; 109,75</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-45,31; 54,36</t>
+          <t>-37,33; 56,45</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>10,2; 17,35</t>
+          <t>10,37; 17,71</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,21; 10,79</t>
+          <t>3,3; 10,7</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,41; 18,03</t>
+          <t>3,04; 17,85</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>117,67; 331,34</t>
+          <t>114,54; 341,49</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>27,18; 130,48</t>
+          <t>27,73; 126,5</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>23,66; 112,31</t>
+          <t>18,34; 106,84</t>
         </is>
       </c>
     </row>
@@ -1042,17 +1042,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>15,47; 20,69</t>
+          <t>15,25; 20,5</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>9,87; 14,64</t>
+          <t>9,62; 14,47</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>20,47; 27,99</t>
+          <t>20,43; 28,19</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1062,12 +1062,12 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>355,57; —</t>
+          <t>411,48; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>284,02; 1944,38</t>
+          <t>304,9; 1786,44</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>8,11; 11,24</t>
+          <t>8,05; 11,07</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,75; 7,74</t>
+          <t>4,86; 7,73</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>8,35; 15,39</t>
+          <t>7,86; 15,51</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>108,86; 186,27</t>
+          <t>109,12; 184,44</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>62,13; 123,33</t>
+          <t>64,42; 126,54</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>68,3; 148,34</t>
+          <t>65,42; 151,05</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/DCD-Clase-trans_bre.xlsx
+++ b/data/trans_bre/DCD-Clase-trans_bre.xlsx
@@ -994,7 +994,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
